--- a/resource/测试数据-200.xlsx
+++ b/resource/测试数据-200.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="14460" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="909">
   <si>
     <t>助记词</t>
   </si>
@@ -54,325 +54,25 @@
     </r>
   </si>
   <si>
-    <t>vital mask arrive satoshi glare silly surface bonus kitten tip universe celery</t>
-  </si>
-  <si>
-    <t>ad64e7be87d6a1b072278192234449bcd67b80f6df626008cfdadc50934a9840</t>
-  </si>
-  <si>
-    <t>231d41e926c391f8fc5969a8c30dbef7ecb94717b55cd8feb1cfc934629baf9524d38ad586dbe9ab954b73ea40be4ce4d4f1e3978eb1a751709144162ca267ec</t>
-  </si>
-  <si>
-    <t>0x731FB546852986bDC9775c27c8E05Ce69358a3e1</t>
+    <t>pulse tribe broken choose joke ship garden never wine trouble cheese glass</t>
+  </si>
+  <si>
+    <t>6b6b385abd41c5d2fc9636528ddfdca85adf93eaac9fd802c02c0925216528fa</t>
+  </si>
+  <si>
+    <t>072a13ad8e20e78f7452cb201f06604d6f4576f5d834535397c082bd7b31e7f936c4bf032f605625835cf094d9c75fd4c795876593450c0bb275df8c3e5b1d8e</t>
+  </si>
+  <si>
+    <t>0x531d1029bF1219A327C1f26a06f6FA0585e54110</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>71a8c5a1d2994f768bf34c062617df49</t>
+    <t>97b45d458f8847599f69792299e099c5</t>
   </si>
   <si>
     <t>SHIfeng0615</t>
-  </si>
-  <si>
-    <t>uncover myself eyebrow hold plate suggest misery green certain solution transfer rough</t>
-  </si>
-  <si>
-    <t>94065f20db514956ece4cc99e100d9ed5f00d63d0520f741ee3e1722490a4f6b</t>
-  </si>
-  <si>
-    <t>a36f06d5d07c2455787ac739bd3d2a463c4fe89c95a3d5a78ec79a72120486e9d646e24009cceebfe6bf49d09fac979c1d019d6f7d29d27ec4ced7bf774d567a</t>
-  </si>
-  <si>
-    <t>0xdc06B9EC7d48Ee90DbBEe01d3D064602fB56F635</t>
-  </si>
-  <si>
-    <t>ecb96bdf53b74267a1b98f684b073e23</t>
-  </si>
-  <si>
-    <t>lumber clinic device grid ability pond mom awful bone sibling open length</t>
-  </si>
-  <si>
-    <t>8404e7a9e3a89f26c7752cd63e17e2add78f75d952fdd7c7d3c64a45b9fb5a52</t>
-  </si>
-  <si>
-    <t>335abb71244c5479d34caeefd5dd971a9abf7e6848dff2ef3ed78659db750d81954d1f23b83ae404a7f8357c9fad9b8ba14989e72ec5ab539612f6fd7a047c98</t>
-  </si>
-  <si>
-    <t>0xFdB1a13ef2a36381c9b954222eAB6Abc3519af09</t>
-  </si>
-  <si>
-    <t>335f18279a794544970c893f359e3aa5</t>
-  </si>
-  <si>
-    <t>festival repeat fish neither soda creek aerobic prosper bless report physical quantum</t>
-  </si>
-  <si>
-    <t>4ad66d1b46b04f03797af126090acfe0148bd5e983c507c4a89a817872a2ec27</t>
-  </si>
-  <si>
-    <t>8ee9ee7f957f7cdf1ed20cfe0b957124f4a970d62d262b35dd3148ff04c2b9c50009607e8ff456d6b9103418c8fa67d65d8296ca0e5c9c26b7d33454f74450cf</t>
-  </si>
-  <si>
-    <t>0x9BA6EFB9ccE96dA3ddDC51D6f537f713877f2C82</t>
-  </si>
-  <si>
-    <t>ccf2aeb03eeb4bbead9de64d9fc50e19</t>
-  </si>
-  <si>
-    <t>symbol evil work page verify vehicle side atom satisfy extend auto glimpse</t>
-  </si>
-  <si>
-    <t>262a754bf1e7a55b8c512aa5788043d1384c3154470c55ba7f7cb2fd7f868f2b</t>
-  </si>
-  <si>
-    <t>324c83e9f4a7959c71df4cd75ebf85ceee1b450bdc8348245ca5c68a8cccb737cf62f99a5c5dcba3ab3c6a17f835414a4f4eab7b13986ff87802451b36ae3893</t>
-  </si>
-  <si>
-    <t>0x30b09221f31c30d20FF6578Cb620d406397bc9F2</t>
-  </si>
-  <si>
-    <t>8f78fdd891d847bbb7902502efb57184</t>
-  </si>
-  <si>
-    <t>make security undo vehicle practice bullet orange illness hello such rose mind</t>
-  </si>
-  <si>
-    <t>9bb6cde456cb5b6db6442cb260f8d4f2c1480ae91b4f7653a6406de3bf9a9776</t>
-  </si>
-  <si>
-    <t>f1c51d967b87fba8b062af5e64563fa1a5a9211186bbef628e5f1cbdcfdefc73ba09d9091a4938884c47ae80a0d84a24f83f467922a39505fbbcb633e3c0b52a</t>
-  </si>
-  <si>
-    <t>0x84540B58EF89Fa6e2b4E7F62f3212f417E3D6bBB</t>
-  </si>
-  <si>
-    <t>2e08528be29644a4af4ed65e3b38ba9a</t>
-  </si>
-  <si>
-    <t>cloth barrel meat idle bubble move corn embark resource marine coin pelican</t>
-  </si>
-  <si>
-    <t>a0ee085a61557fd3f3211b3e9c8c52a1039a594f02294e597df9191ae6a63f20</t>
-  </si>
-  <si>
-    <t>00a14098a770db19c355d9ad6641bd123b1747b0d82e293f8a923c1a448b416ab583c793372cc32205dfd09a38676ddb8b0e7053940c6447c333abaf45ecccb1</t>
-  </si>
-  <si>
-    <t>0xee63D3c50e8bd304110D72fCF2D790DB9fdaFE90</t>
-  </si>
-  <si>
-    <t>38022be633f54b538c1bbd2c167a99ac</t>
-  </si>
-  <si>
-    <t>siege trim shuffle popular fire under limit phrase heart mention list quiz</t>
-  </si>
-  <si>
-    <t>0ba08525dfa4addd9377fb41946535c01ad89d08fdb561861ccc81ca8040554e</t>
-  </si>
-  <si>
-    <t>0f64df108bfead8c575d7035cab3e4b32c1f23f7783edf59233f278cb78d26151967208c52c7a4f5733c9a3645cb1e106fbbe464bfac8ed5f5ccadb3a2c94069</t>
-  </si>
-  <si>
-    <t>0xc6a839fA778d41277EbD0b3B6a8213103563592c</t>
-  </si>
-  <si>
-    <t>7b0eeda3683c4590a56c4584d78fe7d3</t>
-  </si>
-  <si>
-    <t>tray luxury submit rival excite throw enemy convince lounge remove mouse equal</t>
-  </si>
-  <si>
-    <t>ed59a70ecc55c642f64dad808207587b73e842c9dcd5abc4c4a037f9fdb4c4e7</t>
-  </si>
-  <si>
-    <t>670571eaa76b3df653fb29ae649aef751f4cdbcf4c80f6ac95421f50bae506e5f05fa024605135b7aa15b52d8dc144863443d6086e3362d143abd9962ccc07c4</t>
-  </si>
-  <si>
-    <t>0xC6371C28167adb685AB186A34d2E040A8dCf3f75</t>
-  </si>
-  <si>
-    <t>96f1b765ead644af9a8c874231186cc7</t>
-  </si>
-  <si>
-    <t>accuse tackle net coil ankle host drink ethics domain faith cinnamon chunk</t>
-  </si>
-  <si>
-    <t>87d8b783f3352df65e72d7212bc07bb3f98e9538894cae1f7ca07a82102d72d2</t>
-  </si>
-  <si>
-    <t>2d5eac074addcaec1bd6814b55d2c924f29eae78400f0d88a1931548e7c0007884620f6b73eaacb94f74ec06c4f5b93d744e37ab55525f031d0e69ccc94bab41</t>
-  </si>
-  <si>
-    <t>0x06957C6378c4C8e0C52d731B6Fc51EE5a814aEBB</t>
-  </si>
-  <si>
-    <t>d10581caf84644c4a45adb9d89170b24</t>
-  </si>
-  <si>
-    <t>all garbage observe barely moral accident civil easy runway exist stereo dose</t>
-  </si>
-  <si>
-    <t>954d388aad2f1fa0ae6c5e812277c4d3a83684042b94723b6054f818234727dd</t>
-  </si>
-  <si>
-    <t>f79a02814ac4f3d4db3d8db1c604ae084da814dc4edad4630f74f3a9efe91816cc362d9226e6ff5f29f50e79ec999302ab7c4443b84ee29de7e2927ca9e13782</t>
-  </si>
-  <si>
-    <t>0x6Fcbdf0B7C30479707fC4EDd6c379c8E8F03aF3D</t>
-  </si>
-  <si>
-    <t>7b18cf195bb54222855739fbb01bd932</t>
-  </si>
-  <si>
-    <t>minor file brother later bag exclude urge cube soccer special border spawn</t>
-  </si>
-  <si>
-    <t>726d5d541b052a7975a078bbe10135e210c6ee14f571a1c95599ad9555d829ff</t>
-  </si>
-  <si>
-    <t>6d42ad06f81fc47dd55c6ebecf0f9a8bbecae0697e9dc3cbf2c57e8f698e6ebc56496afbadc1944563e288c5a30cd1d6b103476e5701b149de3c1ef9a4d2a410</t>
-  </si>
-  <si>
-    <t>0xdf8d3fF9A7b0cacFC31ae4184Bb6F3a8C996adB5</t>
-  </si>
-  <si>
-    <t>1f37062f2b6b400da6ff2aff604e23a1</t>
-  </si>
-  <si>
-    <t>head choice leisure because merry seven arrange remind bulk unfair pulp lobster</t>
-  </si>
-  <si>
-    <t>8f9d5c3b73791bdfe121008ec7f1bad2eae3eed77af59d98456177c77bf0cc99</t>
-  </si>
-  <si>
-    <t>b53b63a83270f95ab54d3a0dd89b3115f4d5fcdeec2d678eddb019707bafb353b7c94993a217301f4fd5e214a07269f55ae63c1d036697c22535056ae698e657</t>
-  </si>
-  <si>
-    <t>0xB72559578f809E1C575aa3DAde84F9Da87170a30</t>
-  </si>
-  <si>
-    <t>d1c3864d92454e159b61de642cac3035</t>
-  </si>
-  <si>
-    <t>service demand plug path visual crisp shove lumber penalty olive sunset clip</t>
-  </si>
-  <si>
-    <t>f2677a579d2127985bd91a59f3fa09d5c29e0e7e471e12ae5db70831604d997e</t>
-  </si>
-  <si>
-    <t>427234aedf5abf42562a72b79daeb6e218fe5471552dbf49ba955be59eeee00e24ad654280be9bc399c9f2bdaaf7661c0130a88212edfa22a9cf738328a19451</t>
-  </si>
-  <si>
-    <t>0xD57ed42932670614c9dF22Ee4864dF6B303272cE</t>
-  </si>
-  <si>
-    <t>f971f0ac76254bd2a563ff5500b8c95f</t>
-  </si>
-  <si>
-    <t>blossom champion entry better love family festival enforce train mesh bicycle ice</t>
-  </si>
-  <si>
-    <t>26d8058bab91b577cf8e70fcc8ca823fa4f95ae7f82cc7cce705532990444842</t>
-  </si>
-  <si>
-    <t>50c0d68de23c3aa52baf81f994bc6e0235824f9bab37846ea63726612ce32c25a0aa730e8737725ec5c35691fd8949112f8bb35a39035edcd0cbe4353163549f</t>
-  </si>
-  <si>
-    <t>0xdd656d80148BcD8845828E6C0509e708930d9e3e</t>
-  </si>
-  <si>
-    <t>7138a144ae384ed19a254f17681069f5</t>
-  </si>
-  <si>
-    <t>inspire predict second jacket crane relief insect gaze assault country jaguar spot</t>
-  </si>
-  <si>
-    <t>9b42cbbcbbb097b048c08c0ecfe38e6ef948548b1436e81035b62abe9559ac5e</t>
-  </si>
-  <si>
-    <t>d0fd16de93ab8ddc4f5126a274a4e81b9cfaba65d566b53cdcd460fa1c13dfb434143c748050bc636878a0f0347ced2c3c8d7cd7ec58379694a726a4bed95a74</t>
-  </si>
-  <si>
-    <t>0x412b8010bE95E9b3ADCa54e485B7Da4bE4E8a9EE</t>
-  </si>
-  <si>
-    <t>1e3ab4c2860f4288bd39e35c6284b01b</t>
-  </si>
-  <si>
-    <t>giraffe ability physical young knee judge palm uncover hazard solve chapter theory</t>
-  </si>
-  <si>
-    <t>31d856318f2737dfa36ce3f40052cb92766a109fac9dc8bd5462182a3ba6b2bf</t>
-  </si>
-  <si>
-    <t>aa83fd693ea67b4d3bb547e0862262b65c2088118c921f5b33cfc63d90bb84ee70292f44cdfeddd6d44258a8a104026ab4871f2cf4acd35a320188c5b22c195b</t>
-  </si>
-  <si>
-    <t>0xe208C90377aaAF4B137ca5c7Fa89f701188bb0e7</t>
-  </si>
-  <si>
-    <t>5003892b0b3d4f978f386344f7caafb9</t>
-  </si>
-  <si>
-    <t>hidden pill tower video rifle river carry kitchen gas sword volcano gospel</t>
-  </si>
-  <si>
-    <t>78fa3774ac6996c2927e01e7b4d3fe4d779b9b3820255cb9239eff9b9006e80f</t>
-  </si>
-  <si>
-    <t>03e6f5d82a15cd780c5c49d90b27ac75f2b7a19e93037d3f820300952193cbbe1f3d691ee8b5a072c0c5855ac6da2bab4ddae746c3287390606cf4866ce686ef</t>
-  </si>
-  <si>
-    <t>0x9d6cF516993B935C8ebb4aE39fd1970bcd481612</t>
-  </si>
-  <si>
-    <t>0a486fec0a9949ce94c138f2c7574b46</t>
-  </si>
-  <si>
-    <t>guard cover bind devote answer antique tuna idle knife tag raise fringe</t>
-  </si>
-  <si>
-    <t>589a6a146ebb5a1eb4c73bebc4c6695c909693bbbf16976173ab141772def366</t>
-  </si>
-  <si>
-    <t>9b5d5cb7e366756b6b796099f97f30ac9564fabaf4e72cba6718f5c941d100cbfaddffd781f19f51c51b34865b9a123a151142cc0ca29afb6344a4963a3fdba5</t>
-  </si>
-  <si>
-    <t>0x66D877fcED898ee46d1774a812c9c62415A57DbD</t>
-  </si>
-  <si>
-    <t>0671526ec6bb4d23abee98c4a1e31633</t>
-  </si>
-  <si>
-    <t>attract session double return donor keep stand help fancy choice sleep dinner</t>
-  </si>
-  <si>
-    <t>98887d66aebe1c520f7e765106702c9a768004eb76dca592d8c8266254eb7e54</t>
-  </si>
-  <si>
-    <t>90059c186bc5a9e8ca59309ea5891a3b0f9a65810338dbadddfeb505e29f95f4245d751bfa4ad850e1360e4682527893b3ec929fb37705bf8224a80795f65c7e</t>
-  </si>
-  <si>
-    <t>0x4F49b3761362A4E37590d266aC86f66F6E2B04c3</t>
-  </si>
-  <si>
-    <t>5b6eb9c29a7f46a9863490c37bd68c62</t>
-  </si>
-  <si>
-    <t>pulse tribe broken choose joke ship garden never wine trouble cheese glass</t>
-  </si>
-  <si>
-    <t>6b6b385abd41c5d2fc9636528ddfdca85adf93eaac9fd802c02c0925216528fa</t>
-  </si>
-  <si>
-    <t>072a13ad8e20e78f7452cb201f06604d6f4576f5d834535397c082bd7b31e7f936c4bf032f605625835cf094d9c75fd4c795876593450c0bb275df8c3e5b1d8e</t>
-  </si>
-  <si>
-    <t>0x531d1029bF1219A327C1f26a06f6FA0585e54110</t>
-  </si>
-  <si>
-    <t>97b45d458f8847599f69792299e099c5</t>
   </si>
   <si>
     <t>eye trim leopard air pole supreme mention muscle original steak addict acoustic</t>
@@ -4008,12 +3708,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD21"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8188,466 +7888,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
-      <c r="A182" t="s">
-        <v>909</v>
-      </c>
-      <c r="B182" t="s">
-        <v>910</v>
-      </c>
-      <c r="C182" t="s">
-        <v>911</v>
-      </c>
-      <c r="D182" t="s">
-        <v>912</v>
-      </c>
-      <c r="E182" t="s">
-        <v>11</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="G182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" t="s">
-        <v>914</v>
-      </c>
-      <c r="B183" t="s">
-        <v>915</v>
-      </c>
-      <c r="C183" t="s">
-        <v>916</v>
-      </c>
-      <c r="D183" t="s">
-        <v>917</v>
-      </c>
-      <c r="E183" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="G183" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" t="s">
-        <v>919</v>
-      </c>
-      <c r="B184" t="s">
-        <v>920</v>
-      </c>
-      <c r="C184" t="s">
-        <v>921</v>
-      </c>
-      <c r="D184" t="s">
-        <v>922</v>
-      </c>
-      <c r="E184" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="G184" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" t="s">
-        <v>924</v>
-      </c>
-      <c r="B185" t="s">
-        <v>925</v>
-      </c>
-      <c r="C185" t="s">
-        <v>926</v>
-      </c>
-      <c r="D185" t="s">
-        <v>927</v>
-      </c>
-      <c r="E185" t="s">
-        <v>11</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="G185" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" t="s">
-        <v>929</v>
-      </c>
-      <c r="B186" t="s">
-        <v>930</v>
-      </c>
-      <c r="C186" t="s">
-        <v>931</v>
-      </c>
-      <c r="D186" t="s">
-        <v>932</v>
-      </c>
-      <c r="E186" t="s">
-        <v>11</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="G186" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" t="s">
-        <v>934</v>
-      </c>
-      <c r="B187" t="s">
-        <v>935</v>
-      </c>
-      <c r="C187" t="s">
-        <v>936</v>
-      </c>
-      <c r="D187" t="s">
-        <v>937</v>
-      </c>
-      <c r="E187" t="s">
-        <v>11</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="G187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" t="s">
-        <v>939</v>
-      </c>
-      <c r="B188" t="s">
-        <v>940</v>
-      </c>
-      <c r="C188" t="s">
-        <v>941</v>
-      </c>
-      <c r="D188" t="s">
-        <v>942</v>
-      </c>
-      <c r="E188" t="s">
-        <v>11</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="G188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" t="s">
-        <v>944</v>
-      </c>
-      <c r="B189" t="s">
-        <v>945</v>
-      </c>
-      <c r="C189" t="s">
-        <v>946</v>
-      </c>
-      <c r="D189" t="s">
-        <v>947</v>
-      </c>
-      <c r="E189" t="s">
-        <v>11</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="G189" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" t="s">
-        <v>949</v>
-      </c>
-      <c r="B190" t="s">
-        <v>950</v>
-      </c>
-      <c r="C190" t="s">
-        <v>951</v>
-      </c>
-      <c r="D190" t="s">
-        <v>952</v>
-      </c>
-      <c r="E190" t="s">
-        <v>11</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="G190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" t="s">
-        <v>954</v>
-      </c>
-      <c r="B191" t="s">
-        <v>955</v>
-      </c>
-      <c r="C191" t="s">
-        <v>956</v>
-      </c>
-      <c r="D191" t="s">
-        <v>957</v>
-      </c>
-      <c r="E191" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="G191" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" t="s">
-        <v>959</v>
-      </c>
-      <c r="B192" t="s">
-        <v>960</v>
-      </c>
-      <c r="C192" t="s">
-        <v>961</v>
-      </c>
-      <c r="D192" t="s">
-        <v>962</v>
-      </c>
-      <c r="E192" t="s">
-        <v>11</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="G192" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" t="s">
-        <v>964</v>
-      </c>
-      <c r="B193" t="s">
-        <v>965</v>
-      </c>
-      <c r="C193" t="s">
-        <v>966</v>
-      </c>
-      <c r="D193" t="s">
-        <v>967</v>
-      </c>
-      <c r="E193" t="s">
-        <v>11</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="G193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" t="s">
-        <v>969</v>
-      </c>
-      <c r="B194" t="s">
-        <v>970</v>
-      </c>
-      <c r="C194" t="s">
-        <v>971</v>
-      </c>
-      <c r="D194" t="s">
-        <v>972</v>
-      </c>
-      <c r="E194" t="s">
-        <v>11</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="G194" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" t="s">
-        <v>974</v>
-      </c>
-      <c r="B195" t="s">
-        <v>975</v>
-      </c>
-      <c r="C195" t="s">
-        <v>976</v>
-      </c>
-      <c r="D195" t="s">
-        <v>977</v>
-      </c>
-      <c r="E195" t="s">
-        <v>11</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="G195" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" t="s">
-        <v>979</v>
-      </c>
-      <c r="B196" t="s">
-        <v>980</v>
-      </c>
-      <c r="C196" t="s">
-        <v>981</v>
-      </c>
-      <c r="D196" t="s">
-        <v>982</v>
-      </c>
-      <c r="E196" t="s">
-        <v>11</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="G196" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" t="s">
-        <v>984</v>
-      </c>
-      <c r="B197" t="s">
-        <v>985</v>
-      </c>
-      <c r="C197" t="s">
-        <v>986</v>
-      </c>
-      <c r="D197" t="s">
-        <v>987</v>
-      </c>
-      <c r="E197" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="G197" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" t="s">
-        <v>989</v>
-      </c>
-      <c r="B198" t="s">
-        <v>990</v>
-      </c>
-      <c r="C198" t="s">
-        <v>991</v>
-      </c>
-      <c r="D198" t="s">
-        <v>992</v>
-      </c>
-      <c r="E198" t="s">
-        <v>11</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="G198" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" t="s">
-        <v>994</v>
-      </c>
-      <c r="B199" t="s">
-        <v>995</v>
-      </c>
-      <c r="C199" t="s">
-        <v>996</v>
-      </c>
-      <c r="D199" t="s">
-        <v>997</v>
-      </c>
-      <c r="E199" t="s">
-        <v>11</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="G199" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" t="s">
-        <v>999</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E200" t="s">
-        <v>11</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G200" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E201" t="s">
-        <v>11</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G201" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
